--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cadm1-Crtam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cadm1-Crtam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.747564666666667</v>
+        <v>0.8244693333333334</v>
       </c>
       <c r="H2">
-        <v>8.242694</v>
+        <v>2.473408</v>
       </c>
       <c r="I2">
-        <v>0.2756902755784301</v>
+        <v>0.04531162661728313</v>
       </c>
       <c r="J2">
-        <v>0.2756902755784301</v>
+        <v>0.04531162661728313</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.4508936666666667</v>
+        <v>0.4937903333333333</v>
       </c>
       <c r="N2">
-        <v>1.352681</v>
+        <v>1.481371</v>
       </c>
       <c r="O2">
-        <v>0.3499879428792612</v>
+        <v>0.8374020920199343</v>
       </c>
       <c r="P2">
-        <v>0.3499879428792612</v>
+        <v>0.8374020920199343</v>
       </c>
       <c r="Q2">
-        <v>1.238859506957111</v>
+        <v>0.4071149869297778</v>
       </c>
       <c r="R2">
-        <v>11.149735562614</v>
+        <v>3.664034882368</v>
       </c>
       <c r="S2">
-        <v>0.09648827242151135</v>
+        <v>0.03794405092213903</v>
       </c>
       <c r="T2">
-        <v>0.09648827242151135</v>
+        <v>0.03794405092213903</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.747564666666667</v>
+        <v>0.8244693333333334</v>
       </c>
       <c r="H3">
-        <v>8.242694</v>
+        <v>2.473408</v>
       </c>
       <c r="I3">
-        <v>0.2756902755784301</v>
+        <v>0.04531162661728313</v>
       </c>
       <c r="J3">
-        <v>0.2756902755784301</v>
+        <v>0.04531162661728313</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -617,28 +617,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.4937903333333333</v>
+        <v>0.09091933333333334</v>
       </c>
       <c r="N3">
-        <v>1.481371</v>
+        <v>0.272758</v>
       </c>
       <c r="O3">
-        <v>0.3832847426192827</v>
+        <v>0.1541869793692284</v>
       </c>
       <c r="P3">
-        <v>0.3832847426192827</v>
+        <v>0.1541869793692284</v>
       </c>
       <c r="Q3">
-        <v>1.356720872608222</v>
+        <v>0.07496020214044445</v>
       </c>
       <c r="R3">
-        <v>12.210487853474</v>
+        <v>0.674641819264</v>
       </c>
       <c r="S3">
-        <v>0.1056678763177177</v>
+        <v>0.006986462838425214</v>
       </c>
       <c r="T3">
-        <v>0.1056678763177177</v>
+        <v>0.006986462838425214</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.747564666666667</v>
+        <v>0.8244693333333334</v>
       </c>
       <c r="H4">
-        <v>8.242694</v>
+        <v>2.473408</v>
       </c>
       <c r="I4">
-        <v>0.2756902755784301</v>
+        <v>0.04531162661728313</v>
       </c>
       <c r="J4">
-        <v>0.2756902755784301</v>
+        <v>0.04531162661728313</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1584433333333334</v>
+        <v>0.004959666666666667</v>
       </c>
       <c r="N4">
-        <v>0.47533</v>
+        <v>0.014879</v>
       </c>
       <c r="O4">
-        <v>0.1229852189014256</v>
+        <v>0.008410928610837261</v>
       </c>
       <c r="P4">
-        <v>0.1229852189014256</v>
+        <v>0.008410928610837259</v>
       </c>
       <c r="Q4">
-        <v>0.4353333043355556</v>
+        <v>0.004089093070222222</v>
       </c>
       <c r="R4">
-        <v>3.91799973902</v>
+        <v>0.036801837632</v>
       </c>
       <c r="S4">
-        <v>0.03390582889100756</v>
+        <v>0.0003811128567188818</v>
       </c>
       <c r="T4">
-        <v>0.03390582889100756</v>
+        <v>0.0003811128567188817</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,25 +714,25 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>2.747564666666667</v>
+        <v>0.01719833333333333</v>
       </c>
       <c r="H5">
-        <v>8.242694</v>
+        <v>0.051595</v>
       </c>
       <c r="I5">
-        <v>0.2756902755784301</v>
+        <v>0.0009451952024569835</v>
       </c>
       <c r="J5">
-        <v>0.2756902755784301</v>
+        <v>0.0009451952024569837</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1851846666666667</v>
+        <v>0.4937903333333333</v>
       </c>
       <c r="N5">
-        <v>0.555554</v>
+        <v>1.481371</v>
       </c>
       <c r="O5">
-        <v>0.1437420956000307</v>
+        <v>0.8374020920199343</v>
       </c>
       <c r="P5">
-        <v>0.1437420956000307</v>
+        <v>0.8374020920199343</v>
       </c>
       <c r="Q5">
-        <v>0.5088068469417778</v>
+        <v>0.008492370749444445</v>
       </c>
       <c r="R5">
-        <v>4.579261622476</v>
+        <v>0.07643133674500001</v>
       </c>
       <c r="S5">
-        <v>0.03962829794819349</v>
+        <v>0.0007915084399046833</v>
       </c>
       <c r="T5">
-        <v>0.03962829794819349</v>
+        <v>0.0007915084399046835</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -791,40 +791,40 @@
         <v>0.051595</v>
       </c>
       <c r="I6">
-        <v>0.001725678494005612</v>
+        <v>0.0009451952024569835</v>
       </c>
       <c r="J6">
-        <v>0.001725678494005613</v>
+        <v>0.0009451952024569837</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.4508936666666667</v>
+        <v>0.09091933333333334</v>
       </c>
       <c r="N6">
-        <v>1.352681</v>
+        <v>0.272758</v>
       </c>
       <c r="O6">
-        <v>0.3499879428792612</v>
+        <v>0.1541869793692284</v>
       </c>
       <c r="P6">
-        <v>0.3499879428792612</v>
+        <v>0.1541869793692284</v>
       </c>
       <c r="Q6">
-        <v>0.007754619577222222</v>
+        <v>0.001563661001111111</v>
       </c>
       <c r="R6">
-        <v>0.06979157619500001</v>
+        <v>0.01407294901</v>
       </c>
       <c r="S6">
-        <v>0.0006039666661880057</v>
+        <v>0.0001457367931811286</v>
       </c>
       <c r="T6">
-        <v>0.0006039666661880057</v>
+        <v>0.0001457367931811286</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -853,45 +853,45 @@
         <v>0.051595</v>
       </c>
       <c r="I7">
-        <v>0.001725678494005612</v>
+        <v>0.0009451952024569835</v>
       </c>
       <c r="J7">
-        <v>0.001725678494005613</v>
+        <v>0.0009451952024569837</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.4937903333333333</v>
+        <v>0.004959666666666667</v>
       </c>
       <c r="N7">
-        <v>1.481371</v>
+        <v>0.014879</v>
       </c>
       <c r="O7">
-        <v>0.3832847426192827</v>
+        <v>0.008410928610837261</v>
       </c>
       <c r="P7">
-        <v>0.3832847426192827</v>
+        <v>0.008410928610837259</v>
       </c>
       <c r="Q7">
-        <v>0.008492370749444445</v>
+        <v>8.529800055555556E-05</v>
       </c>
       <c r="R7">
-        <v>0.07643133674500001</v>
+        <v>0.000767682005</v>
       </c>
       <c r="S7">
-        <v>0.0006614262374185727</v>
+        <v>7.949969371171559E-06</v>
       </c>
       <c r="T7">
-        <v>0.0006614262374185728</v>
+        <v>7.949969371171559E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,25 +900,25 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.01719833333333333</v>
+        <v>3.182317</v>
       </c>
       <c r="H8">
-        <v>0.051595</v>
+        <v>9.546951</v>
       </c>
       <c r="I8">
-        <v>0.001725678494005612</v>
+        <v>0.1748954798583565</v>
       </c>
       <c r="J8">
-        <v>0.001725678494005613</v>
+        <v>0.1748954798583565</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -927,33 +927,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.1584433333333334</v>
+        <v>0.4937903333333333</v>
       </c>
       <c r="N8">
-        <v>0.47533</v>
+        <v>1.481371</v>
       </c>
       <c r="O8">
-        <v>0.1229852189014256</v>
+        <v>0.8374020920199343</v>
       </c>
       <c r="P8">
-        <v>0.1229852189014256</v>
+        <v>0.8374020920199343</v>
       </c>
       <c r="Q8">
-        <v>0.002724961261111111</v>
+        <v>1.571397372202333</v>
       </c>
       <c r="R8">
-        <v>0.02452465135</v>
+        <v>14.142576349821</v>
       </c>
       <c r="S8">
-        <v>0.0002122329473387626</v>
+        <v>0.146457840718218</v>
       </c>
       <c r="T8">
-        <v>0.0002122329473387627</v>
+        <v>0.146457840718218</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,25 +962,25 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.01719833333333333</v>
+        <v>3.182317</v>
       </c>
       <c r="H9">
-        <v>0.051595</v>
+        <v>9.546951</v>
       </c>
       <c r="I9">
-        <v>0.001725678494005612</v>
+        <v>0.1748954798583565</v>
       </c>
       <c r="J9">
-        <v>0.001725678494005613</v>
+        <v>0.1748954798583565</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.1851846666666667</v>
+        <v>0.09091933333333334</v>
       </c>
       <c r="N9">
-        <v>0.555554</v>
+        <v>0.272758</v>
       </c>
       <c r="O9">
-        <v>0.1437420956000307</v>
+        <v>0.1541869793692284</v>
       </c>
       <c r="P9">
-        <v>0.1437420956000307</v>
+        <v>0.1541869793692284</v>
       </c>
       <c r="Q9">
-        <v>0.003184867625555555</v>
+        <v>0.2893341400953333</v>
       </c>
       <c r="R9">
-        <v>0.02866380863</v>
+        <v>2.604007260858</v>
       </c>
       <c r="S9">
-        <v>0.0002480526430602717</v>
+        <v>0.02696660574469171</v>
       </c>
       <c r="T9">
-        <v>0.0002480526430602717</v>
+        <v>0.02696660574469171</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.535068333333334</v>
+        <v>3.182317</v>
       </c>
       <c r="H10">
-        <v>7.605205000000001</v>
+        <v>9.546951</v>
       </c>
       <c r="I10">
-        <v>0.2543684215719345</v>
+        <v>0.1748954798583565</v>
       </c>
       <c r="J10">
-        <v>0.2543684215719344</v>
+        <v>0.1748954798583565</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,33 +1051,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.4508936666666667</v>
+        <v>0.004959666666666667</v>
       </c>
       <c r="N10">
-        <v>1.352681</v>
+        <v>0.014879</v>
       </c>
       <c r="O10">
-        <v>0.3499879428792612</v>
+        <v>0.008410928610837261</v>
       </c>
       <c r="P10">
-        <v>0.3499879428792612</v>
+        <v>0.008410928610837259</v>
       </c>
       <c r="Q10">
-        <v>1.143046256067223</v>
+        <v>0.01578323154766667</v>
       </c>
       <c r="R10">
-        <v>10.287416304605</v>
+        <v>0.142049083929</v>
       </c>
       <c r="S10">
-        <v>0.08902588059940601</v>
+        <v>0.001471033395446762</v>
       </c>
       <c r="T10">
-        <v>0.089025880599406</v>
+        <v>0.001471033395446762</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.535068333333334</v>
+        <v>14.17155133333333</v>
       </c>
       <c r="H11">
-        <v>7.605205000000001</v>
+        <v>42.514654</v>
       </c>
       <c r="I11">
-        <v>0.2543684215719345</v>
+        <v>0.7788476983219034</v>
       </c>
       <c r="J11">
-        <v>0.2543684215719344</v>
+        <v>0.7788476983219035</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,27 +1119,27 @@
         <v>1.481371</v>
       </c>
       <c r="O11">
-        <v>0.3832847426192827</v>
+        <v>0.8374020920199343</v>
       </c>
       <c r="P11">
-        <v>0.3832847426192827</v>
+        <v>0.8374020920199343</v>
       </c>
       <c r="Q11">
-        <v>1.251792237339445</v>
+        <v>6.997775056737111</v>
       </c>
       <c r="R11">
-        <v>11.266130136055</v>
+        <v>62.979975510634</v>
       </c>
       <c r="S11">
-        <v>0.09749553499267211</v>
+        <v>0.6522086919396726</v>
       </c>
       <c r="T11">
-        <v>0.09749553499267209</v>
+        <v>0.6522086919396727</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.535068333333334</v>
+        <v>14.17155133333333</v>
       </c>
       <c r="H12">
-        <v>7.605205000000001</v>
+        <v>42.514654</v>
       </c>
       <c r="I12">
-        <v>0.2543684215719345</v>
+        <v>0.7788476983219034</v>
       </c>
       <c r="J12">
-        <v>0.2543684215719344</v>
+        <v>0.7788476983219035</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1175,33 +1175,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1584433333333334</v>
+        <v>0.09091933333333334</v>
       </c>
       <c r="N12">
-        <v>0.47533</v>
+        <v>0.272758</v>
       </c>
       <c r="O12">
-        <v>0.1229852189014256</v>
+        <v>0.1541869793692284</v>
       </c>
       <c r="P12">
-        <v>0.1229852189014256</v>
+        <v>0.1541869793692284</v>
       </c>
       <c r="Q12">
-        <v>0.4016646769611112</v>
+        <v>1.288467999525778</v>
       </c>
       <c r="R12">
-        <v>3.61498209265</v>
+        <v>11.596211995732</v>
       </c>
       <c r="S12">
-        <v>0.03128355600863446</v>
+        <v>0.1200881739929303</v>
       </c>
       <c r="T12">
-        <v>0.03128355600863445</v>
+        <v>0.1200881739929304</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1219,294 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.535068333333334</v>
+        <v>14.17155133333333</v>
       </c>
       <c r="H13">
-        <v>7.605205000000001</v>
+        <v>42.514654</v>
       </c>
       <c r="I13">
-        <v>0.2543684215719345</v>
+        <v>0.7788476983219034</v>
       </c>
       <c r="J13">
-        <v>0.2543684215719344</v>
+        <v>0.7788476983219035</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.1851846666666667</v>
+        <v>0.004959666666666667</v>
       </c>
       <c r="N13">
-        <v>0.555554</v>
+        <v>0.014879</v>
       </c>
       <c r="O13">
-        <v>0.1437420956000307</v>
+        <v>0.008410928610837261</v>
       </c>
       <c r="P13">
-        <v>0.1437420956000307</v>
+        <v>0.008410928610837259</v>
       </c>
       <c r="Q13">
-        <v>0.4694557842855556</v>
+        <v>0.07028617076288889</v>
       </c>
       <c r="R13">
-        <v>4.22510205857</v>
+        <v>0.632575536866</v>
       </c>
       <c r="S13">
-        <v>0.0365634499712219</v>
+        <v>0.006550832389300445</v>
       </c>
       <c r="T13">
-        <v>0.03656344997122189</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>4.666297</v>
-      </c>
-      <c r="H14">
-        <v>13.998891</v>
-      </c>
-      <c r="I14">
-        <v>0.4682156243556299</v>
-      </c>
-      <c r="J14">
-        <v>0.4682156243556299</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.4508936666666667</v>
-      </c>
-      <c r="N14">
-        <v>1.352681</v>
-      </c>
-      <c r="O14">
-        <v>0.3499879428792612</v>
-      </c>
-      <c r="P14">
-        <v>0.3499879428792612</v>
-      </c>
-      <c r="Q14">
-        <v>2.104003764085667</v>
-      </c>
-      <c r="R14">
-        <v>18.936033876771</v>
-      </c>
-      <c r="S14">
-        <v>0.1638698231921558</v>
-      </c>
-      <c r="T14">
-        <v>0.1638698231921558</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>4.666297</v>
-      </c>
-      <c r="H15">
-        <v>13.998891</v>
-      </c>
-      <c r="I15">
-        <v>0.4682156243556299</v>
-      </c>
-      <c r="J15">
-        <v>0.4682156243556299</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M15">
-        <v>0.4937903333333333</v>
-      </c>
-      <c r="N15">
-        <v>1.481371</v>
-      </c>
-      <c r="O15">
-        <v>0.3832847426192827</v>
-      </c>
-      <c r="P15">
-        <v>0.3832847426192827</v>
-      </c>
-      <c r="Q15">
-        <v>2.304172351062333</v>
-      </c>
-      <c r="R15">
-        <v>20.737551159561</v>
-      </c>
-      <c r="S15">
-        <v>0.1794599050714744</v>
-      </c>
-      <c r="T15">
-        <v>0.1794599050714744</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>4.666297</v>
-      </c>
-      <c r="H16">
-        <v>13.998891</v>
-      </c>
-      <c r="I16">
-        <v>0.4682156243556299</v>
-      </c>
-      <c r="J16">
-        <v>0.4682156243556299</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M16">
-        <v>0.1584433333333334</v>
-      </c>
-      <c r="N16">
-        <v>0.47533</v>
-      </c>
-      <c r="O16">
-        <v>0.1229852189014256</v>
-      </c>
-      <c r="P16">
-        <v>0.1229852189014256</v>
-      </c>
-      <c r="Q16">
-        <v>0.7393436510033334</v>
-      </c>
-      <c r="R16">
-        <v>6.65409285903</v>
-      </c>
-      <c r="S16">
-        <v>0.05758360105444478</v>
-      </c>
-      <c r="T16">
-        <v>0.05758360105444478</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>4.666297</v>
-      </c>
-      <c r="H17">
-        <v>13.998891</v>
-      </c>
-      <c r="I17">
-        <v>0.4682156243556299</v>
-      </c>
-      <c r="J17">
-        <v>0.4682156243556299</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M17">
-        <v>0.1851846666666667</v>
-      </c>
-      <c r="N17">
-        <v>0.555554</v>
-      </c>
-      <c r="O17">
-        <v>0.1437420956000307</v>
-      </c>
-      <c r="P17">
-        <v>0.1437420956000307</v>
-      </c>
-      <c r="Q17">
-        <v>0.8641266545126667</v>
-      </c>
-      <c r="R17">
-        <v>7.777139890614</v>
-      </c>
-      <c r="S17">
-        <v>0.067302295037555</v>
-      </c>
-      <c r="T17">
-        <v>0.067302295037555</v>
+        <v>0.006550832389300445</v>
       </c>
     </row>
   </sheetData>
